--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_3_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_3_bus_resonant.xlsx
@@ -755,7 +755,7 @@
         <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>0.9717494206873251</v>
+        <v>0.9717494206873249</v>
       </c>
       <c r="P2">
         <v>1.056597221450648</v>
@@ -764,7 +764,7 @@
         <v>26.67016311516074</v>
       </c>
       <c r="R2">
-        <v>-91.68229557616606</v>
+        <v>-91.68229557616607</v>
       </c>
       <c r="S2">
         <v>152.6354521266393</v>
@@ -817,13 +817,13 @@
         <v>0.4711324625045255</v>
       </c>
       <c r="P3">
-        <v>0.8867526821368246</v>
+        <v>0.8867526821368233</v>
       </c>
       <c r="Q3">
-        <v>11.70358232174644</v>
+        <v>11.70358232174645</v>
       </c>
       <c r="R3">
-        <v>-113.1797985005416</v>
+        <v>-113.1797985005418</v>
       </c>
       <c r="S3">
         <v>165.8651090976159</v>
@@ -873,19 +873,19 @@
         <v>1.004840030213502</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557481</v>
+        <v>0.235566231255748</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423151</v>
+        <v>0.9127115190423138</v>
       </c>
       <c r="Q4">
-        <v>6.18582776475129</v>
+        <v>6.1858277647513</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957917</v>
       </c>
       <c r="S4">
-        <v>173.1869568170008</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -911,22 +911,22 @@
         <v>34.58697219773961</v>
       </c>
       <c r="H5">
-        <v>7.413051324193639</v>
+        <v>2.542129332567606</v>
       </c>
       <c r="I5">
-        <v>3.390143041356974</v>
+        <v>-1165.720190324394</v>
       </c>
       <c r="J5">
-        <v>1.147731927164112</v>
+        <v>1.14773192722413</v>
       </c>
       <c r="K5">
-        <v>3.488438701404433</v>
+        <v>3.488438701519483</v>
       </c>
       <c r="L5">
-        <v>1.1477319271709</v>
+        <v>1.147731927162521</v>
       </c>
       <c r="M5">
-        <v>3.488438701416181</v>
+        <v>3.488438701430278</v>
       </c>
       <c r="N5">
         <v>0.9526279648043285</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061715</v>
+        <v>0.9526279648061703</v>
       </c>
       <c r="Q5">
-        <v>-1.471317341126438E-11</v>
+        <v>-1.470883264082738E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -991,16 +991,16 @@
         <v>1.004840030206317</v>
       </c>
       <c r="O6">
-        <v>0.2355662312598145</v>
+        <v>0.2355662312598144</v>
       </c>
       <c r="P6">
-        <v>0.9127115190507498</v>
+        <v>0.9127115190507487</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114833</v>
+        <v>6.185827765114841</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912246</v>
+        <v>-113.1797984912249</v>
       </c>
       <c r="S6">
         <v>173.1869568167123</v>
@@ -1181,13 +1181,13 @@
         <v>1.110691092641168</v>
       </c>
       <c r="O3">
-        <v>0.8010472659662118</v>
+        <v>0.8010472659662119</v>
       </c>
       <c r="P3">
-        <v>0.9498440590705097</v>
+        <v>0.9498440590705095</v>
       </c>
       <c r="Q3">
-        <v>20.60981428630313</v>
+        <v>20.60981428630314</v>
       </c>
       <c r="R3">
         <v>-102.5423331070932</v>
@@ -1240,10 +1240,10 @@
         <v>1.08054316191597</v>
       </c>
       <c r="O4">
-        <v>0.6778116409140659</v>
+        <v>0.6778116409140658</v>
       </c>
       <c r="P4">
-        <v>0.9365579876248715</v>
+        <v>0.9365579876248711</v>
       </c>
       <c r="Q4">
         <v>17.79481892925098</v>
@@ -1278,34 +1278,34 @@
         <v>18.11438852725838</v>
       </c>
       <c r="H5">
-        <v>7.413051324193639</v>
+        <v>2.542129332567606</v>
       </c>
       <c r="I5">
-        <v>3.390143041356974</v>
+        <v>-1165.720190324394</v>
       </c>
       <c r="J5">
-        <v>1.147731927164112</v>
+        <v>1.14773192722413</v>
       </c>
       <c r="K5">
-        <v>3.488438701404433</v>
+        <v>3.488438701519483</v>
       </c>
       <c r="L5">
-        <v>1.1477319271709</v>
+        <v>1.147731927162521</v>
       </c>
       <c r="M5">
-        <v>3.488438701416181</v>
+        <v>3.488438701430278</v>
       </c>
       <c r="N5">
-        <v>1.053149057115869</v>
+        <v>1.053149057115868</v>
       </c>
       <c r="O5">
         <v>0.5546376111780766</v>
       </c>
       <c r="P5">
-        <v>0.9271939290302879</v>
+        <v>0.9271939290302872</v>
       </c>
       <c r="Q5">
-        <v>14.82588342075277</v>
+        <v>14.82588342075278</v>
       </c>
       <c r="R5">
         <v>-103.653192268985</v>
@@ -1358,13 +1358,13 @@
         <v>1.08054316191212</v>
       </c>
       <c r="O6">
-        <v>0.6778116409156862</v>
+        <v>0.6778116409156864</v>
       </c>
       <c r="P6">
-        <v>0.9365579876299004</v>
+        <v>0.9365579876298999</v>
       </c>
       <c r="Q6">
-        <v>17.79481892942265</v>
+        <v>17.79481892942266</v>
       </c>
       <c r="R6">
         <v>-102.9968045954625</v>
@@ -1548,13 +1548,13 @@
         <v>1.110691092641168</v>
       </c>
       <c r="O3">
-        <v>0.8010472659662118</v>
+        <v>0.8010472659662119</v>
       </c>
       <c r="P3">
-        <v>0.9498440590705097</v>
+        <v>0.9498440590705095</v>
       </c>
       <c r="Q3">
-        <v>20.60981428630313</v>
+        <v>20.60981428630314</v>
       </c>
       <c r="R3">
         <v>-102.5423331070932</v>
@@ -1607,10 +1607,10 @@
         <v>1.08054316191597</v>
       </c>
       <c r="O4">
-        <v>0.6778116409140659</v>
+        <v>0.6778116409140658</v>
       </c>
       <c r="P4">
-        <v>0.9365579876248715</v>
+        <v>0.9365579876248711</v>
       </c>
       <c r="Q4">
         <v>17.79481892925098</v>
@@ -1645,34 +1645,34 @@
         <v>18.11438852725838</v>
       </c>
       <c r="H5">
-        <v>7.413051324193639</v>
+        <v>2.542129332567606</v>
       </c>
       <c r="I5">
-        <v>3.390143041356974</v>
+        <v>-1165.720190324394</v>
       </c>
       <c r="J5">
-        <v>1.147731927164112</v>
+        <v>1.14773192722413</v>
       </c>
       <c r="K5">
-        <v>3.488438701404433</v>
+        <v>3.488438701519483</v>
       </c>
       <c r="L5">
-        <v>1.1477319271709</v>
+        <v>1.147731927162521</v>
       </c>
       <c r="M5">
-        <v>3.488438701416181</v>
+        <v>3.488438701430278</v>
       </c>
       <c r="N5">
-        <v>1.053149057115869</v>
+        <v>1.053149057115868</v>
       </c>
       <c r="O5">
         <v>0.5546376111780766</v>
       </c>
       <c r="P5">
-        <v>0.9271939290302879</v>
+        <v>0.9271939290302872</v>
       </c>
       <c r="Q5">
-        <v>14.82588342075277</v>
+        <v>14.82588342075278</v>
       </c>
       <c r="R5">
         <v>-103.653192268985</v>
@@ -1725,13 +1725,13 @@
         <v>1.08054316191212</v>
       </c>
       <c r="O6">
-        <v>0.6778116409156862</v>
+        <v>0.6778116409156864</v>
       </c>
       <c r="P6">
-        <v>0.9365579876299004</v>
+        <v>0.9365579876298999</v>
       </c>
       <c r="Q6">
-        <v>17.79481892942265</v>
+        <v>17.79481892942266</v>
       </c>
       <c r="R6">
         <v>-102.9968045954625</v>
@@ -1859,7 +1859,7 @@
         <v>0.8925077601169354</v>
       </c>
       <c r="P2">
-        <v>0.951700846433795</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
         <v>26.56536361475425</v>
@@ -1915,16 +1915,16 @@
         <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.556109019339991</v>
+        <v>0.5561090193399905</v>
       </c>
       <c r="P3">
-        <v>0.7706324860879308</v>
+        <v>0.7706324860879304</v>
       </c>
       <c r="Q3">
-        <v>13.65879647337781</v>
+        <v>13.65879647337778</v>
       </c>
       <c r="R3">
-        <v>-118.993657238633</v>
+        <v>-118.9936572386331</v>
       </c>
       <c r="S3">
         <v>161.6033321423728</v>
@@ -1974,13 +1974,13 @@
         <v>0.9413015024173014</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809832</v>
+        <v>0.2780545096809824</v>
       </c>
       <c r="P4">
         <v>0.8078419627250772</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182349</v>
+        <v>7.422585260182307</v>
       </c>
       <c r="R4">
         <v>-118.9936572335706</v>
@@ -1997,49 +1997,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.397643038417563</v>
+        <v>2.397643038417566</v>
       </c>
       <c r="D5">
-        <v>2.397643038417563</v>
+        <v>2.397643038417566</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.68559707302024</v>
+        <v>27.68559707302028</v>
       </c>
       <c r="G5">
-        <v>27.68559707302024</v>
+        <v>27.68559707302028</v>
       </c>
       <c r="H5">
-        <v>14.23278600647117</v>
+        <v>4.880736449441652</v>
       </c>
       <c r="I5">
-        <v>3.339000131649207</v>
+        <v>-1165.721470576622</v>
       </c>
       <c r="J5">
-        <v>2.11215190086395</v>
+        <v>2.112151900924475</v>
       </c>
       <c r="K5">
-        <v>3.596397547110759</v>
+        <v>3.596397547225991</v>
       </c>
       <c r="L5">
-        <v>2.112151900850906</v>
+        <v>2.112151900843543</v>
       </c>
       <c r="M5">
-        <v>3.596397547088289</v>
+        <v>3.596397547101565</v>
       </c>
       <c r="N5">
-        <v>0.8660254037887615</v>
+        <v>0.8660254037887611</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891291</v>
+        <v>0.8660254037891292</v>
       </c>
       <c r="Q5">
-        <v>1.933528701283151E-10</v>
+        <v>1.933005283597722E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413015024105799</v>
+        <v>0.9413015024105795</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894994</v>
+        <v>0.2780545096894984</v>
       </c>
       <c r="P6">
         <v>0.8078419627343751</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806253</v>
+        <v>7.422585260806214</v>
       </c>
       <c r="R6">
-        <v>-118.9936572288336</v>
+        <v>-118.9936572288337</v>
       </c>
       <c r="S6">
         <v>171.3424305976101</v>
@@ -2226,7 +2226,7 @@
         <v>0.8925077601169354</v>
       </c>
       <c r="P2">
-        <v>0.951700846433795</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
         <v>26.56536361475425</v>
@@ -2282,16 +2282,16 @@
         <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.556109019339991</v>
+        <v>0.5561090193399905</v>
       </c>
       <c r="P3">
-        <v>0.7706324860879308</v>
+        <v>0.7706324860879304</v>
       </c>
       <c r="Q3">
-        <v>13.65879647337781</v>
+        <v>13.65879647337778</v>
       </c>
       <c r="R3">
-        <v>-118.993657238633</v>
+        <v>-118.9936572386331</v>
       </c>
       <c r="S3">
         <v>161.6033321423728</v>
@@ -2341,13 +2341,13 @@
         <v>0.9413015024173014</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809832</v>
+        <v>0.2780545096809824</v>
       </c>
       <c r="P4">
         <v>0.8078419627250772</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182349</v>
+        <v>7.422585260182307</v>
       </c>
       <c r="R4">
         <v>-118.9936572335706</v>
@@ -2364,49 +2364,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.397643038417563</v>
+        <v>2.397643038417566</v>
       </c>
       <c r="D5">
-        <v>2.397643038417563</v>
+        <v>2.397643038417566</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.68559707302024</v>
+        <v>27.68559707302028</v>
       </c>
       <c r="G5">
-        <v>27.68559707302024</v>
+        <v>27.68559707302028</v>
       </c>
       <c r="H5">
-        <v>14.23278600647117</v>
+        <v>4.880736449441652</v>
       </c>
       <c r="I5">
-        <v>3.339000131649207</v>
+        <v>-1165.721470576622</v>
       </c>
       <c r="J5">
-        <v>2.11215190086395</v>
+        <v>2.112151900924475</v>
       </c>
       <c r="K5">
-        <v>3.596397547110759</v>
+        <v>3.596397547225991</v>
       </c>
       <c r="L5">
-        <v>2.112151900850906</v>
+        <v>2.112151900843543</v>
       </c>
       <c r="M5">
-        <v>3.596397547088289</v>
+        <v>3.596397547101565</v>
       </c>
       <c r="N5">
-        <v>0.8660254037887615</v>
+        <v>0.8660254037887611</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891291</v>
+        <v>0.8660254037891292</v>
       </c>
       <c r="Q5">
-        <v>1.933528701283151E-10</v>
+        <v>1.933005283597722E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413015024105799</v>
+        <v>0.9413015024105795</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894994</v>
+        <v>0.2780545096894984</v>
       </c>
       <c r="P6">
         <v>0.8078419627343751</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806253</v>
+        <v>7.422585260806214</v>
       </c>
       <c r="R6">
-        <v>-118.9936572288336</v>
+        <v>-118.9936572288337</v>
       </c>
       <c r="S6">
         <v>171.3424305976101</v>
@@ -2596,7 +2596,7 @@
         <v>0.9714136499339263</v>
       </c>
       <c r="Q2">
-        <v>28.12895287789162</v>
+        <v>28.12895287789161</v>
       </c>
       <c r="R2">
         <v>-92.06695043634009</v>
@@ -2649,13 +2649,13 @@
         <v>1.024295523193719</v>
       </c>
       <c r="O3">
-        <v>0.7601105130307677</v>
+        <v>0.7601105130307676</v>
       </c>
       <c r="P3">
         <v>0.8600596939664568</v>
       </c>
       <c r="Q3">
-        <v>21.13973208229469</v>
+        <v>21.13973208229468</v>
       </c>
       <c r="R3">
         <v>-103.5956248909722</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9736886975942208</v>
+        <v>0.9736886975942209</v>
       </c>
       <c r="O4">
         <v>0.6105905023675667</v>
@@ -2714,10 +2714,10 @@
         <v>0.8592675374866855</v>
       </c>
       <c r="Q4">
-        <v>17.89765854075592</v>
+        <v>17.89765854075591</v>
       </c>
       <c r="R4">
-        <v>-101.4382340426271</v>
+        <v>-101.4382340426272</v>
       </c>
       <c r="S4">
         <v>159.6202630074795</v>
@@ -2740,40 +2740,40 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.10503255976918</v>
+        <v>15.10503255976919</v>
       </c>
       <c r="G5">
-        <v>15.10503255976918</v>
+        <v>15.10503255976919</v>
       </c>
       <c r="H5">
-        <v>14.23278600647117</v>
+        <v>4.880736449441652</v>
       </c>
       <c r="I5">
-        <v>3.339000131649207</v>
+        <v>-1165.721470576622</v>
       </c>
       <c r="J5">
-        <v>2.11215190086395</v>
+        <v>2.112151900924475</v>
       </c>
       <c r="K5">
-        <v>3.596397547110759</v>
+        <v>3.596397547225991</v>
       </c>
       <c r="L5">
-        <v>2.112151900850906</v>
+        <v>2.112151900843543</v>
       </c>
       <c r="M5">
-        <v>3.596397547088289</v>
+        <v>3.596397547101565</v>
       </c>
       <c r="N5">
-        <v>0.9265339329004409</v>
+        <v>0.9265339329004408</v>
       </c>
       <c r="O5">
-        <v>0.4624952789982432</v>
+        <v>0.462495278998243</v>
       </c>
       <c r="P5">
         <v>0.8651507456751671</v>
       </c>
       <c r="Q5">
-        <v>14.31307774380566</v>
+        <v>14.31307774380565</v>
       </c>
       <c r="R5">
         <v>-97.89113682127689</v>
@@ -2826,10 +2826,10 @@
         <v>0.9736886975909312</v>
       </c>
       <c r="O6">
-        <v>0.6105905023744953</v>
+        <v>0.6105905023744952</v>
       </c>
       <c r="P6">
-        <v>0.8592675374928748</v>
+        <v>0.8592675374928744</v>
       </c>
       <c r="Q6">
         <v>17.89765854109854</v>
@@ -2963,7 +2963,7 @@
         <v>0.9714136499339263</v>
       </c>
       <c r="Q2">
-        <v>28.12895287789162</v>
+        <v>28.12895287789161</v>
       </c>
       <c r="R2">
         <v>-92.06695043634009</v>
@@ -3016,13 +3016,13 @@
         <v>1.024295523193719</v>
       </c>
       <c r="O3">
-        <v>0.7601105130307677</v>
+        <v>0.7601105130307676</v>
       </c>
       <c r="P3">
         <v>0.8600596939664568</v>
       </c>
       <c r="Q3">
-        <v>21.13973208229469</v>
+        <v>21.13973208229468</v>
       </c>
       <c r="R3">
         <v>-103.5956248909722</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9736886975942208</v>
+        <v>0.9736886975942209</v>
       </c>
       <c r="O4">
         <v>0.6105905023675667</v>
@@ -3081,10 +3081,10 @@
         <v>0.8592675374866855</v>
       </c>
       <c r="Q4">
-        <v>17.89765854075592</v>
+        <v>17.89765854075591</v>
       </c>
       <c r="R4">
-        <v>-101.4382340426271</v>
+        <v>-101.4382340426272</v>
       </c>
       <c r="S4">
         <v>159.6202630074795</v>
@@ -3107,40 +3107,40 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.10503255976918</v>
+        <v>15.10503255976919</v>
       </c>
       <c r="G5">
-        <v>15.10503255976918</v>
+        <v>15.10503255976919</v>
       </c>
       <c r="H5">
-        <v>14.23278600647117</v>
+        <v>4.880736449441652</v>
       </c>
       <c r="I5">
-        <v>3.339000131649207</v>
+        <v>-1165.721470576622</v>
       </c>
       <c r="J5">
-        <v>2.11215190086395</v>
+        <v>2.112151900924475</v>
       </c>
       <c r="K5">
-        <v>3.596397547110759</v>
+        <v>3.596397547225991</v>
       </c>
       <c r="L5">
-        <v>2.112151900850906</v>
+        <v>2.112151900843543</v>
       </c>
       <c r="M5">
-        <v>3.596397547088289</v>
+        <v>3.596397547101565</v>
       </c>
       <c r="N5">
-        <v>0.9265339329004409</v>
+        <v>0.9265339329004408</v>
       </c>
       <c r="O5">
-        <v>0.4624952789982432</v>
+        <v>0.462495278998243</v>
       </c>
       <c r="P5">
         <v>0.8651507456751671</v>
       </c>
       <c r="Q5">
-        <v>14.31307774380566</v>
+        <v>14.31307774380565</v>
       </c>
       <c r="R5">
         <v>-97.89113682127689</v>
@@ -3193,10 +3193,10 @@
         <v>0.9736886975909312</v>
       </c>
       <c r="O6">
-        <v>0.6105905023744953</v>
+        <v>0.6105905023744952</v>
       </c>
       <c r="P6">
-        <v>0.8592675374928748</v>
+        <v>0.8592675374928744</v>
       </c>
       <c r="Q6">
         <v>17.89765854109854</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.041497988747026</v>
+        <v>1.100585770210917</v>
       </c>
       <c r="O2">
-        <v>1.100000023845007</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.078705367260891</v>
+        <v>1.100660719486625</v>
       </c>
       <c r="Q2">
-        <v>29.58119350472591</v>
+        <v>29.97788901352687</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>147.1042612443101</v>
+        <v>150.0153479778688</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7971286491664648</v>
+        <v>1.103191883967508</v>
       </c>
       <c r="O3">
-        <v>1.100000023848607</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P3">
-        <v>1.038207768382894</v>
+        <v>1.103384289191194</v>
       </c>
       <c r="Q3">
-        <v>25.95546838476547</v>
+        <v>29.89277520341269</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>133.657754133848</v>
+        <v>150.0898492773462</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7022581638934355</v>
+        <v>1.103602368987548</v>
       </c>
       <c r="O4">
-        <v>1.100000023848607</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P4">
-        <v>0.9708932057627251</v>
+        <v>1.104650459285551</v>
       </c>
       <c r="Q4">
-        <v>29.48953242570896</v>
+        <v>29.82910174872756</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>129.0208602948288</v>
+        <v>150.0762246920449</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.682857862703103</v>
+        <v>0.03288457943688849</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30.97897418458282</v>
+        <v>0.3797184158015041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.413051324193703</v>
+        <v>2.54212933256942</v>
       </c>
       <c r="I5">
-        <v>3.390143041356789</v>
+        <v>-1165.720190324393</v>
       </c>
       <c r="J5">
-        <v>1.147731927075787</v>
+        <v>1.147731926946038</v>
       </c>
       <c r="K5">
-        <v>3.488438701416142</v>
+        <v>3.488438701410435</v>
       </c>
       <c r="L5">
-        <v>1.147731927171186</v>
+        <v>1.147731927187579</v>
       </c>
       <c r="M5">
-        <v>3.488438701416127</v>
+        <v>3.48843870141623</v>
       </c>
       <c r="N5">
-        <v>0.6108829211411595</v>
+        <v>1.104014215956663</v>
       </c>
       <c r="O5">
-        <v>1.100000023848607</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P5">
-        <v>0.9108517073887634</v>
+        <v>1.105916691700445</v>
       </c>
       <c r="Q5">
-        <v>34.10312086032289</v>
+        <v>29.76547572163962</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>123.7338998245408</v>
+        <v>150.062631305247</v>
       </c>
       <c r="T5">
-        <v>2.682857862703103</v>
+        <v>0.03288457943688848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7022581638989636</v>
+        <v>1.103602368987443</v>
       </c>
       <c r="O6">
-        <v>1.100000023848607</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P6">
-        <v>0.9708932057571387</v>
+        <v>1.104650459285508</v>
       </c>
       <c r="Q6">
-        <v>29.48953242624685</v>
+        <v>29.82910174872696</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>129.020860295215</v>
+        <v>150.0762246920399</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.041497988747026</v>
+        <v>1.100585770210917</v>
       </c>
       <c r="O2">
-        <v>1.100000023845007</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.078705367260891</v>
+        <v>1.100660719486625</v>
       </c>
       <c r="Q2">
-        <v>29.58119350472591</v>
+        <v>29.97788901352687</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>147.1042612443101</v>
+        <v>150.0153479778688</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7971286491664648</v>
+        <v>1.103191883967508</v>
       </c>
       <c r="O3">
-        <v>1.100000023848607</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P3">
-        <v>1.038207768382894</v>
+        <v>1.103384289191194</v>
       </c>
       <c r="Q3">
-        <v>25.95546838476547</v>
+        <v>29.89277520341269</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>133.657754133848</v>
+        <v>150.0898492773462</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7022581638934355</v>
+        <v>1.103602368987548</v>
       </c>
       <c r="O4">
-        <v>1.100000023848607</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P4">
-        <v>0.9708932057627251</v>
+        <v>1.104650459285551</v>
       </c>
       <c r="Q4">
-        <v>29.48953242570896</v>
+        <v>29.82910174872756</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>129.0208602948288</v>
+        <v>150.0762246920449</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.682857862703103</v>
+        <v>0.03288457943688849</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30.97897418458282</v>
+        <v>0.3797184158015041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.413051324193703</v>
+        <v>2.54212933256942</v>
       </c>
       <c r="I5">
-        <v>3.390143041356789</v>
+        <v>-1165.720190324393</v>
       </c>
       <c r="J5">
-        <v>1.147731927075787</v>
+        <v>1.147731926946038</v>
       </c>
       <c r="K5">
-        <v>3.488438701416142</v>
+        <v>3.488438701410435</v>
       </c>
       <c r="L5">
-        <v>1.147731927171186</v>
+        <v>1.147731927187579</v>
       </c>
       <c r="M5">
-        <v>3.488438701416127</v>
+        <v>3.48843870141623</v>
       </c>
       <c r="N5">
-        <v>0.6108829211411595</v>
+        <v>1.104014215956663</v>
       </c>
       <c r="O5">
-        <v>1.100000023848607</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P5">
-        <v>0.9108517073887634</v>
+        <v>1.105916691700445</v>
       </c>
       <c r="Q5">
-        <v>34.10312086032289</v>
+        <v>29.76547572163962</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>123.7338998245408</v>
+        <v>150.062631305247</v>
       </c>
       <c r="T5">
-        <v>2.682857862703103</v>
+        <v>0.03288457943688848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7022581638989636</v>
+        <v>1.103602368987443</v>
       </c>
       <c r="O6">
-        <v>1.100000023848607</v>
+        <v>1.10000002384183</v>
       </c>
       <c r="P6">
-        <v>0.9708932057571387</v>
+        <v>1.104650459285508</v>
       </c>
       <c r="Q6">
-        <v>29.48953242624685</v>
+        <v>29.82910174872696</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>129.020860295215</v>
+        <v>150.0762246920399</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.076594744326155</v>
+        <v>1.100587655691925</v>
       </c>
       <c r="O2">
-        <v>1.100000023843124</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.091559947726329</v>
+        <v>1.100673162329507</v>
       </c>
       <c r="Q2">
-        <v>29.81299515833145</v>
+        <v>29.97719751079967</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.8434946559211</v>
+        <v>150.0150868258645</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9785108210763632</v>
+        <v>1.103205575472361</v>
       </c>
       <c r="O3">
-        <v>1.100000023844594</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P3">
-        <v>1.067240463434415</v>
+        <v>1.103450916289774</v>
       </c>
       <c r="Q3">
-        <v>28.539082527464</v>
+        <v>29.88918534589378</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>143.6541477825572</v>
+        <v>150.0886584187299</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9405571288817935</v>
+        <v>1.103605083488753</v>
       </c>
       <c r="O4">
-        <v>1.100000023844594</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P4">
-        <v>1.034796215310185</v>
+        <v>1.104729905854334</v>
       </c>
       <c r="Q4">
-        <v>29.656297476529</v>
+        <v>29.82440922847866</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>142.1732098258899</v>
+        <v>150.073984785628</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.076056720775208</v>
+        <v>0.0333111353549741</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.42523274805744</v>
+        <v>0.3846438592841271</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.413051324193703</v>
+        <v>2.54212933256942</v>
       </c>
       <c r="I5">
-        <v>3.390143041356789</v>
+        <v>-1165.720190324393</v>
       </c>
       <c r="J5">
-        <v>1.147731927075787</v>
+        <v>1.147731926946038</v>
       </c>
       <c r="K5">
-        <v>3.488438701416142</v>
+        <v>3.488438701410435</v>
       </c>
       <c r="L5">
-        <v>1.147731927171186</v>
+        <v>1.147731927187579</v>
       </c>
       <c r="M5">
-        <v>3.488438701416127</v>
+        <v>3.48843870141623</v>
       </c>
       <c r="N5">
-        <v>0.9029910288966368</v>
+        <v>1.104006001065138</v>
       </c>
       <c r="O5">
-        <v>1.100000023844594</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P5">
-        <v>1.003087736698271</v>
+        <v>1.106008967709369</v>
       </c>
       <c r="Q5">
-        <v>30.86696176443034</v>
+        <v>29.75968007501607</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>140.5975349461755</v>
+        <v>150.0593450906957</v>
       </c>
       <c r="T5">
-        <v>1.076056720775208</v>
+        <v>0.0333111353549741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9405571288839663</v>
+        <v>1.103605083488647</v>
       </c>
       <c r="O6">
-        <v>1.100000023844594</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P6">
-        <v>1.03479621530854</v>
+        <v>1.104729905854289</v>
       </c>
       <c r="Q6">
-        <v>29.65629747669231</v>
+        <v>29.82440922847811</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>142.1732098260579</v>
+        <v>150.0739847856229</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.076594744326155</v>
+        <v>1.100587655691925</v>
       </c>
       <c r="O2">
-        <v>1.100000023843124</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.091559947726329</v>
+        <v>1.100673162329507</v>
       </c>
       <c r="Q2">
-        <v>29.81299515833145</v>
+        <v>29.97719751079967</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.8434946559211</v>
+        <v>150.0150868258645</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9785108210763632</v>
+        <v>1.103205575472361</v>
       </c>
       <c r="O3">
-        <v>1.100000023844594</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P3">
-        <v>1.067240463434415</v>
+        <v>1.103450916289774</v>
       </c>
       <c r="Q3">
-        <v>28.539082527464</v>
+        <v>29.88918534589378</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>143.6541477825572</v>
+        <v>150.0886584187299</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9405571288817935</v>
+        <v>1.103605083488753</v>
       </c>
       <c r="O4">
-        <v>1.100000023844594</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P4">
-        <v>1.034796215310185</v>
+        <v>1.104729905854334</v>
       </c>
       <c r="Q4">
-        <v>29.656297476529</v>
+        <v>29.82440922847866</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>142.1732098258899</v>
+        <v>150.073984785628</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.076056720775208</v>
+        <v>0.0333111353549741</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.42523274805744</v>
+        <v>0.3846438592841271</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.413051324193703</v>
+        <v>2.54212933256942</v>
       </c>
       <c r="I5">
-        <v>3.390143041356789</v>
+        <v>-1165.720190324393</v>
       </c>
       <c r="J5">
-        <v>1.147731927075787</v>
+        <v>1.147731926946038</v>
       </c>
       <c r="K5">
-        <v>3.488438701416142</v>
+        <v>3.488438701410435</v>
       </c>
       <c r="L5">
-        <v>1.147731927171186</v>
+        <v>1.147731927187579</v>
       </c>
       <c r="M5">
-        <v>3.488438701416127</v>
+        <v>3.48843870141623</v>
       </c>
       <c r="N5">
-        <v>0.9029910288966368</v>
+        <v>1.104006001065138</v>
       </c>
       <c r="O5">
-        <v>1.100000023844594</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P5">
-        <v>1.003087736698271</v>
+        <v>1.106008967709369</v>
       </c>
       <c r="Q5">
-        <v>30.86696176443034</v>
+        <v>29.75968007501607</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>140.5975349461755</v>
+        <v>150.0593450906957</v>
       </c>
       <c r="T5">
-        <v>1.076056720775208</v>
+        <v>0.0333111353549741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9405571288839663</v>
+        <v>1.103605083488647</v>
       </c>
       <c r="O6">
-        <v>1.100000023844594</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P6">
-        <v>1.03479621530854</v>
+        <v>1.104729905854289</v>
       </c>
       <c r="Q6">
-        <v>29.65629747669231</v>
+        <v>29.82440922847811</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>142.1732098260579</v>
+        <v>150.0739847856229</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9630889566963977</v>
+        <v>1.000603600251145</v>
       </c>
       <c r="O2">
-        <v>0.9999999999973835</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="P2">
-        <v>0.9969763953779656</v>
+        <v>1.000683770609247</v>
       </c>
       <c r="Q2">
-        <v>28.99145781125279</v>
+        <v>29.97474408144881</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>147.6677588688848</v>
+        <v>150.0172981710018</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8302206207388132</v>
+        <v>1.003028788679255</v>
       </c>
       <c r="O3">
-        <v>0.9999999999992101</v>
+        <v>0.9999999999999658</v>
       </c>
       <c r="P3">
-        <v>1.010975773135993</v>
+        <v>1.003228997979241</v>
       </c>
       <c r="Q3">
-        <v>23.69184531034847</v>
+        <v>29.88692829967557</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>138.7635502591454</v>
+        <v>150.0931824744085</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.744000310025964</v>
+        <v>1.003037657005011</v>
       </c>
       <c r="O4">
-        <v>0.9999999999992097</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P4">
-        <v>0.9429829387219888</v>
+        <v>1.004731404560768</v>
       </c>
       <c r="Q4">
-        <v>26.51622253823217</v>
+        <v>29.78789356741229</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>134.909657249676</v>
+        <v>150.0438039132134</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.630128689995869</v>
+        <v>0.02989994733303716</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.82310475965694</v>
+        <v>0.3452548528296928</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.23278600647129</v>
+        <v>4.880736449441167</v>
       </c>
       <c r="I5">
-        <v>3.339000131648989</v>
+        <v>-1165.721470576626</v>
       </c>
       <c r="J5">
-        <v>2.112151900893005</v>
+        <v>2.112151900762949</v>
       </c>
       <c r="K5">
-        <v>3.59639754708817</v>
+        <v>3.59639754708293</v>
       </c>
       <c r="L5">
-        <v>2.112151900851433</v>
+        <v>2.112151900866599</v>
       </c>
       <c r="M5">
-        <v>3.596397547088237</v>
+        <v>3.596397547087993</v>
       </c>
       <c r="N5">
-        <v>0.6600574394850222</v>
+        <v>1.003049521998849</v>
       </c>
       <c r="O5">
-        <v>0.9999999999992097</v>
+        <v>0.9999999999999655</v>
       </c>
       <c r="P5">
-        <v>0.8799038649119746</v>
+        <v>1.006234555159013</v>
       </c>
       <c r="Q5">
-        <v>30.0695645998087</v>
+        <v>29.68886088222124</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999608</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>130.4806106058647</v>
+        <v>149.994572842617</v>
       </c>
       <c r="T5">
-        <v>1.630128689995869</v>
+        <v>0.02989994733303716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7440003100319562</v>
+        <v>1.003037657004868</v>
       </c>
       <c r="O6">
-        <v>0.9999999999992101</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P6">
-        <v>0.9429829387183833</v>
+        <v>1.00473140456065</v>
       </c>
       <c r="Q6">
-        <v>26.51622253867821</v>
+        <v>29.78789356741527</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>134.9096572501325</v>
+        <v>150.0438039132078</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9630889566963977</v>
+        <v>1.000603600251145</v>
       </c>
       <c r="O2">
-        <v>0.9999999999973835</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="P2">
-        <v>0.9969763953779656</v>
+        <v>1.000683770609247</v>
       </c>
       <c r="Q2">
-        <v>28.99145781125279</v>
+        <v>29.97474408144881</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>147.6677588688848</v>
+        <v>150.0172981710018</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8302206207388132</v>
+        <v>1.003028788679255</v>
       </c>
       <c r="O3">
-        <v>0.9999999999992101</v>
+        <v>0.9999999999999658</v>
       </c>
       <c r="P3">
-        <v>1.010975773135993</v>
+        <v>1.003228997979241</v>
       </c>
       <c r="Q3">
-        <v>23.69184531034847</v>
+        <v>29.88692829967557</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>138.7635502591454</v>
+        <v>150.0931824744085</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.744000310025964</v>
+        <v>1.003037657005011</v>
       </c>
       <c r="O4">
-        <v>0.9999999999992097</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P4">
-        <v>0.9429829387219888</v>
+        <v>1.004731404560768</v>
       </c>
       <c r="Q4">
-        <v>26.51622253823217</v>
+        <v>29.78789356741229</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>134.909657249676</v>
+        <v>150.0438039132134</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.630128689995869</v>
+        <v>0.02989994733303716</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.82310475965694</v>
+        <v>0.3452548528296928</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.23278600647129</v>
+        <v>4.880736449441167</v>
       </c>
       <c r="I5">
-        <v>3.339000131648989</v>
+        <v>-1165.721470576626</v>
       </c>
       <c r="J5">
-        <v>2.112151900893005</v>
+        <v>2.112151900762949</v>
       </c>
       <c r="K5">
-        <v>3.59639754708817</v>
+        <v>3.59639754708293</v>
       </c>
       <c r="L5">
-        <v>2.112151900851433</v>
+        <v>2.112151900866599</v>
       </c>
       <c r="M5">
-        <v>3.596397547088237</v>
+        <v>3.596397547087993</v>
       </c>
       <c r="N5">
-        <v>0.6600574394850222</v>
+        <v>1.003049521998849</v>
       </c>
       <c r="O5">
-        <v>0.9999999999992097</v>
+        <v>0.9999999999999655</v>
       </c>
       <c r="P5">
-        <v>0.8799038649119746</v>
+        <v>1.006234555159013</v>
       </c>
       <c r="Q5">
-        <v>30.0695645998087</v>
+        <v>29.68886088222124</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999608</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>130.4806106058647</v>
+        <v>149.994572842617</v>
       </c>
       <c r="T5">
-        <v>1.630128689995869</v>
+        <v>0.02989994733303716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7440003100319562</v>
+        <v>1.003037657004868</v>
       </c>
       <c r="O6">
-        <v>0.9999999999992101</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P6">
-        <v>0.9429829387183833</v>
+        <v>1.00473140456065</v>
       </c>
       <c r="Q6">
-        <v>26.51622253867821</v>
+        <v>29.78789356741527</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>134.9096572501325</v>
+        <v>150.0438039132078</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9803339183561649</v>
+        <v>1.000605447501941</v>
       </c>
       <c r="O2">
-        <v>0.999999999998794</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="P2">
-        <v>0.9955524124316854</v>
+        <v>1.000696589386781</v>
       </c>
       <c r="Q2">
-        <v>29.64955321855518</v>
+        <v>29.97395731946193</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.8462817389397</v>
+        <v>150.0169958720067</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9070308693932855</v>
+        <v>1.003041270042679</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997767</v>
+        <v>0.9999999999999666</v>
       </c>
       <c r="P3">
-        <v>0.9874502645188316</v>
+        <v>1.003292232858989</v>
       </c>
       <c r="Q3">
-        <v>27.85688681721201</v>
+        <v>29.88316368673301</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>144.3029587256377</v>
+        <v>150.0919048118498</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.868179893314641</v>
+        <v>1.003027176305176</v>
       </c>
       <c r="O4">
-        <v>0.9999999999997765</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P4">
-        <v>0.9459605630989949</v>
+        <v>1.004802373019227</v>
       </c>
       <c r="Q4">
-        <v>29.64684717128781</v>
+        <v>29.78285109098939</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>142.9044376679835</v>
+        <v>150.0407512700867</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8230965129056379</v>
+        <v>0.0302863611149877</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.504299865902247</v>
+        <v>0.3497167748502473</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.23278600647129</v>
+        <v>4.880736449441167</v>
       </c>
       <c r="I5">
-        <v>3.339000131648989</v>
+        <v>-1165.721470576626</v>
       </c>
       <c r="J5">
-        <v>2.112151900893005</v>
+        <v>2.112151900762949</v>
       </c>
       <c r="K5">
-        <v>3.59639754708817</v>
+        <v>3.59639754708293</v>
       </c>
       <c r="L5">
-        <v>2.112151900851433</v>
+        <v>2.112151900866599</v>
       </c>
       <c r="M5">
-        <v>3.596397547088237</v>
+        <v>3.596397547087993</v>
       </c>
       <c r="N5">
-        <v>0.830255040496949</v>
+        <v>1.003016157176302</v>
       </c>
       <c r="O5">
-        <v>0.9999999999997765</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P5">
-        <v>0.9050859213274152</v>
+        <v>1.006313311691215</v>
       </c>
       <c r="Q5">
-        <v>31.60239136178858</v>
+        <v>29.6825359836754</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999621</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>141.3786200001421</v>
+        <v>149.9897512977265</v>
       </c>
       <c r="T5">
-        <v>0.8230965129056377</v>
+        <v>0.0302863611149877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8681798933181597</v>
+        <v>1.003027176305031</v>
       </c>
       <c r="O6">
-        <v>0.9999999999997767</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P6">
-        <v>0.9459605630982642</v>
+        <v>1.004802373019106</v>
       </c>
       <c r="Q6">
-        <v>29.6468471714401</v>
+        <v>29.78285109099251</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>142.9044376682345</v>
+        <v>150.0407512700812</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9803339183561649</v>
+        <v>1.000605447501941</v>
       </c>
       <c r="O2">
-        <v>0.999999999998794</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="P2">
-        <v>0.9955524124316854</v>
+        <v>1.000696589386781</v>
       </c>
       <c r="Q2">
-        <v>29.64955321855518</v>
+        <v>29.97395731946193</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.8462817389397</v>
+        <v>150.0169958720067</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9070308693932855</v>
+        <v>1.003041270042679</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997767</v>
+        <v>0.9999999999999666</v>
       </c>
       <c r="P3">
-        <v>0.9874502645188316</v>
+        <v>1.003292232858989</v>
       </c>
       <c r="Q3">
-        <v>27.85688681721201</v>
+        <v>29.88316368673301</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>144.3029587256377</v>
+        <v>150.0919048118498</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.868179893314641</v>
+        <v>1.003027176305176</v>
       </c>
       <c r="O4">
-        <v>0.9999999999997765</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P4">
-        <v>0.9459605630989949</v>
+        <v>1.004802373019227</v>
       </c>
       <c r="Q4">
-        <v>29.64684717128781</v>
+        <v>29.78285109098939</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>142.9044376679835</v>
+        <v>150.0407512700867</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8230965129056379</v>
+        <v>0.0302863611149877</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.504299865902247</v>
+        <v>0.3497167748502473</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.23278600647129</v>
+        <v>4.880736449441167</v>
       </c>
       <c r="I5">
-        <v>3.339000131648989</v>
+        <v>-1165.721470576626</v>
       </c>
       <c r="J5">
-        <v>2.112151900893005</v>
+        <v>2.112151900762949</v>
       </c>
       <c r="K5">
-        <v>3.59639754708817</v>
+        <v>3.59639754708293</v>
       </c>
       <c r="L5">
-        <v>2.112151900851433</v>
+        <v>2.112151900866599</v>
       </c>
       <c r="M5">
-        <v>3.596397547088237</v>
+        <v>3.596397547087993</v>
       </c>
       <c r="N5">
-        <v>0.830255040496949</v>
+        <v>1.003016157176302</v>
       </c>
       <c r="O5">
-        <v>0.9999999999997765</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P5">
-        <v>0.9050859213274152</v>
+        <v>1.006313311691215</v>
       </c>
       <c r="Q5">
-        <v>31.60239136178858</v>
+        <v>29.6825359836754</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999621</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>141.3786200001421</v>
+        <v>149.9897512977265</v>
       </c>
       <c r="T5">
-        <v>0.8230965129056377</v>
+        <v>0.0302863611149877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8681798933181597</v>
+        <v>1.003027176305031</v>
       </c>
       <c r="O6">
-        <v>0.9999999999997767</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P6">
-        <v>0.9459605630982642</v>
+        <v>1.004802373019106</v>
       </c>
       <c r="Q6">
-        <v>29.6468471714401</v>
+        <v>29.78285109099251</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>142.9044376682345</v>
+        <v>150.0407512700812</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.06202952083736</v>
+        <v>1.082164213320686</v>
       </c>
       <c r="O2">
-        <v>0.971749420688185</v>
+        <v>0.9717494206873167</v>
       </c>
       <c r="P2">
-        <v>1.052577878762351</v>
+        <v>1.056764747348667</v>
       </c>
       <c r="Q2">
-        <v>26.16907559780189</v>
+        <v>26.6650362449708</v>
       </c>
       <c r="R2">
-        <v>-91.68229557615774</v>
+        <v>-91.68229557616577</v>
       </c>
       <c r="S2">
-        <v>151.4562639582059</v>
+        <v>152.6390300512698</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.985769967560887</v>
+        <v>1.068460607511529</v>
       </c>
       <c r="O3">
-        <v>0.471132462505366</v>
+        <v>0.4711324625044923</v>
       </c>
       <c r="P3">
-        <v>0.851574305576226</v>
+        <v>0.8876800062438344</v>
       </c>
       <c r="Q3">
-        <v>7.112749008602368</v>
+        <v>11.69086048487186</v>
       </c>
       <c r="R3">
-        <v>-113.1797985004291</v>
+        <v>-113.179798500538</v>
       </c>
       <c r="S3">
-        <v>158.5768786981798</v>
+        <v>165.8770793321396</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8938793327818046</v>
+        <v>1.005990563792495</v>
       </c>
       <c r="O4">
-        <v>0.2355662312560928</v>
+        <v>0.2355662312557135</v>
       </c>
       <c r="P4">
-        <v>0.8291256323115992</v>
+        <v>0.9139193880597386</v>
       </c>
       <c r="Q4">
-        <v>0.191933538332311</v>
+        <v>6.163828243379766</v>
       </c>
       <c r="R4">
-        <v>-113.1797984954888</v>
+        <v>-113.1797984957819</v>
       </c>
       <c r="S4">
-        <v>165.0742420276508</v>
+        <v>173.1795847545881</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.710179013250491</v>
+        <v>2.997908333892505</v>
       </c>
       <c r="D5">
-        <v>2.488313932087676</v>
+        <v>2.992751120939417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.84145704083741</v>
+        <v>34.6168636715732</v>
       </c>
       <c r="G5">
-        <v>28.73257437038232</v>
+        <v>34.55731330583853</v>
       </c>
       <c r="H5">
-        <v>7.413051324193639</v>
+        <v>2.542129332567606</v>
       </c>
       <c r="I5">
-        <v>3.390143041356974</v>
+        <v>-1165.720190324394</v>
       </c>
       <c r="J5">
-        <v>1.147731927164112</v>
+        <v>1.14773192722413</v>
       </c>
       <c r="K5">
-        <v>3.488438701404433</v>
+        <v>3.488438701519483</v>
       </c>
       <c r="L5">
-        <v>1.1477319271709</v>
+        <v>1.147731927162521</v>
       </c>
       <c r="M5">
-        <v>3.488438701416181</v>
+        <v>3.488438701430278</v>
       </c>
       <c r="N5">
-        <v>0.8178433116047272</v>
+        <v>0.9540543288816378</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8178433116080333</v>
+        <v>0.9540543288835395</v>
       </c>
       <c r="Q5">
-        <v>-8.159190817430174</v>
+        <v>-0.02843515472955386</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.8408091825957</v>
+        <v>179.9715648452926</v>
       </c>
       <c r="T5">
-        <v>2.00661647945094</v>
+        <v>0.01636845734083636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8938793327737992</v>
+        <v>1.005990563785285</v>
       </c>
       <c r="O6">
-        <v>0.2355662312601592</v>
+        <v>0.2355662312597799</v>
       </c>
       <c r="P6">
-        <v>0.8291256323195727</v>
+        <v>0.9139193880681548</v>
       </c>
       <c r="Q6">
-        <v>0.1919335388965111</v>
+        <v>6.163828243741981</v>
       </c>
       <c r="R6">
-        <v>-113.179798490922</v>
+        <v>-113.1797984912151</v>
       </c>
       <c r="S6">
-        <v>165.0742420276293</v>
+        <v>173.1795847542989</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.06202952083736</v>
+        <v>1.082164213320686</v>
       </c>
       <c r="O2">
-        <v>0.971749420688185</v>
+        <v>0.9717494206873167</v>
       </c>
       <c r="P2">
-        <v>1.052577878762351</v>
+        <v>1.056764747348667</v>
       </c>
       <c r="Q2">
-        <v>26.16907559780189</v>
+        <v>26.6650362449708</v>
       </c>
       <c r="R2">
-        <v>-91.68229557615774</v>
+        <v>-91.68229557616577</v>
       </c>
       <c r="S2">
-        <v>151.4562639582059</v>
+        <v>152.6390300512698</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.985769967560887</v>
+        <v>1.068460607511529</v>
       </c>
       <c r="O3">
-        <v>0.471132462505366</v>
+        <v>0.4711324625044923</v>
       </c>
       <c r="P3">
-        <v>0.851574305576226</v>
+        <v>0.8876800062438344</v>
       </c>
       <c r="Q3">
-        <v>7.112749008602368</v>
+        <v>11.69086048487186</v>
       </c>
       <c r="R3">
-        <v>-113.1797985004291</v>
+        <v>-113.179798500538</v>
       </c>
       <c r="S3">
-        <v>158.5768786981798</v>
+        <v>165.8770793321396</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8938793327818046</v>
+        <v>1.005990563792495</v>
       </c>
       <c r="O4">
-        <v>0.2355662312560928</v>
+        <v>0.2355662312557135</v>
       </c>
       <c r="P4">
-        <v>0.8291256323115992</v>
+        <v>0.9139193880597386</v>
       </c>
       <c r="Q4">
-        <v>0.191933538332311</v>
+        <v>6.163828243379766</v>
       </c>
       <c r="R4">
-        <v>-113.1797984954888</v>
+        <v>-113.1797984957819</v>
       </c>
       <c r="S4">
-        <v>165.0742420276508</v>
+        <v>173.1795847545881</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.710179013250491</v>
+        <v>2.997908333892505</v>
       </c>
       <c r="D5">
-        <v>2.488313932087676</v>
+        <v>2.992751120939417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.84145704083741</v>
+        <v>34.6168636715732</v>
       </c>
       <c r="G5">
-        <v>28.73257437038232</v>
+        <v>34.55731330583853</v>
       </c>
       <c r="H5">
-        <v>7.413051324193639</v>
+        <v>2.542129332567606</v>
       </c>
       <c r="I5">
-        <v>3.390143041356974</v>
+        <v>-1165.720190324394</v>
       </c>
       <c r="J5">
-        <v>1.147731927164112</v>
+        <v>1.14773192722413</v>
       </c>
       <c r="K5">
-        <v>3.488438701404433</v>
+        <v>3.488438701519483</v>
       </c>
       <c r="L5">
-        <v>1.1477319271709</v>
+        <v>1.147731927162521</v>
       </c>
       <c r="M5">
-        <v>3.488438701416181</v>
+        <v>3.488438701430278</v>
       </c>
       <c r="N5">
-        <v>0.8178433116047272</v>
+        <v>0.9540543288816378</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8178433116080333</v>
+        <v>0.9540543288835395</v>
       </c>
       <c r="Q5">
-        <v>-8.159190817430174</v>
+        <v>-0.02843515472955386</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.8408091825957</v>
+        <v>179.9715648452926</v>
       </c>
       <c r="T5">
-        <v>2.00661647945094</v>
+        <v>0.01636845734083636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8938793327737992</v>
+        <v>1.005990563785285</v>
       </c>
       <c r="O6">
-        <v>0.2355662312601592</v>
+        <v>0.2355662312597799</v>
       </c>
       <c r="P6">
-        <v>0.8291256323195727</v>
+        <v>0.9139193880681548</v>
       </c>
       <c r="Q6">
-        <v>0.1919335388965111</v>
+        <v>6.163828243741981</v>
       </c>
       <c r="R6">
-        <v>-113.179798490922</v>
+        <v>-113.1797984912151</v>
       </c>
       <c r="S6">
-        <v>165.0742420276293</v>
+        <v>173.1795847542989</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.090263001472808</v>
+        <v>1.100472604662316</v>
       </c>
       <c r="O2">
-        <v>1.060344120151408</v>
+        <v>1.060344120150893</v>
       </c>
       <c r="P2">
-        <v>1.077264219460484</v>
+        <v>1.080190468295653</v>
       </c>
       <c r="Q2">
-        <v>28.64308262271626</v>
+        <v>28.79218095412794</v>
       </c>
       <c r="R2">
-        <v>-91.25541415425297</v>
+        <v>-91.25541415425398</v>
       </c>
       <c r="S2">
-        <v>150.0713478208325</v>
+        <v>150.6124846422321</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.063534074120266</v>
+        <v>1.114308960486343</v>
       </c>
       <c r="O3">
-        <v>0.9069449605557334</v>
+        <v>0.9069449605547395</v>
       </c>
       <c r="P3">
-        <v>0.980378179027508</v>
+        <v>0.9940890661662866</v>
       </c>
       <c r="Q3">
-        <v>22.53334723556307</v>
+        <v>23.73516847788154</v>
       </c>
       <c r="R3">
-        <v>-98.42976487995315</v>
+        <v>-98.42976487996302</v>
       </c>
       <c r="S3">
-        <v>150.0412347806258</v>
+        <v>153.1732660944959</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.026404385357046</v>
+        <v>1.094902810676844</v>
       </c>
       <c r="O4">
-        <v>0.8245251458998719</v>
+        <v>0.8245251458989574</v>
       </c>
       <c r="P4">
-        <v>0.9491322818868796</v>
+        <v>0.9801281579950291</v>
       </c>
       <c r="Q4">
-        <v>20.73685799301139</v>
+        <v>21.83440906059064</v>
       </c>
       <c r="R4">
-        <v>-98.72515785570232</v>
+        <v>-98.7251578557172</v>
       </c>
       <c r="S4">
-        <v>151.5912686865597</v>
+        <v>155.4159073627191</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.259199693387504</v>
+        <v>1.054446709988495</v>
       </c>
       <c r="D5">
-        <v>1.035280886579985</v>
+        <v>1.044661731853092</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.53998563881539</v>
+        <v>12.17570183715946</v>
       </c>
       <c r="G5">
-        <v>11.95439397107657</v>
+        <v>12.06271464194967</v>
       </c>
       <c r="H5">
-        <v>7.413051324193639</v>
+        <v>2.542129332567606</v>
       </c>
       <c r="I5">
-        <v>3.390143041356974</v>
+        <v>-1165.720190324394</v>
       </c>
       <c r="J5">
-        <v>1.147731927164112</v>
+        <v>1.14773192722413</v>
       </c>
       <c r="K5">
-        <v>3.488438701404433</v>
+        <v>3.488438701519483</v>
       </c>
       <c r="L5">
-        <v>1.1477319271709</v>
+        <v>1.147731927162521</v>
       </c>
       <c r="M5">
-        <v>3.488438701416181</v>
+        <v>3.488438701430278</v>
       </c>
       <c r="N5">
-        <v>0.9903588319323992</v>
+        <v>1.076744301483709</v>
       </c>
       <c r="O5">
-        <v>0.7421321146322525</v>
+        <v>0.7421321146314185</v>
       </c>
       <c r="P5">
-        <v>0.9186279795669436</v>
+        <v>0.9677108256695388</v>
       </c>
       <c r="Q5">
-        <v>18.80758200140516</v>
+        <v>19.86731172737662</v>
       </c>
       <c r="R5">
-        <v>-99.08615255179583</v>
+        <v>-99.08615255181688</v>
       </c>
       <c r="S5">
-        <v>153.245523965157</v>
+        <v>157.719711952272</v>
       </c>
       <c r="T5">
-        <v>0.9532576563224346</v>
+        <v>0.01647397532790788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.02640438535502</v>
+        <v>1.094902810674222</v>
       </c>
       <c r="O6">
-        <v>0.8245251459009216</v>
+        <v>0.8245251459000073</v>
       </c>
       <c r="P6">
-        <v>0.9491322818895265</v>
+        <v>0.9801281579983576</v>
       </c>
       <c r="Q6">
-        <v>20.7368579932064</v>
+        <v>21.83440906070241</v>
       </c>
       <c r="R6">
-        <v>-98.72515785524027</v>
+        <v>-98.72515785525515</v>
       </c>
       <c r="S6">
-        <v>151.5912686866806</v>
+        <v>155.4159073627414</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.090263001472808</v>
+        <v>1.100472604662316</v>
       </c>
       <c r="O2">
-        <v>1.060344120151408</v>
+        <v>1.060344120150893</v>
       </c>
       <c r="P2">
-        <v>1.077264219460484</v>
+        <v>1.080190468295653</v>
       </c>
       <c r="Q2">
-        <v>28.64308262271626</v>
+        <v>28.79218095412794</v>
       </c>
       <c r="R2">
-        <v>-91.25541415425297</v>
+        <v>-91.25541415425398</v>
       </c>
       <c r="S2">
-        <v>150.0713478208325</v>
+        <v>150.6124846422321</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.063534074120266</v>
+        <v>1.114308960486343</v>
       </c>
       <c r="O3">
-        <v>0.9069449605557334</v>
+        <v>0.9069449605547395</v>
       </c>
       <c r="P3">
-        <v>0.980378179027508</v>
+        <v>0.9940890661662866</v>
       </c>
       <c r="Q3">
-        <v>22.53334723556307</v>
+        <v>23.73516847788154</v>
       </c>
       <c r="R3">
-        <v>-98.42976487995315</v>
+        <v>-98.42976487996302</v>
       </c>
       <c r="S3">
-        <v>150.0412347806258</v>
+        <v>153.1732660944959</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.026404385357046</v>
+        <v>1.094902810676844</v>
       </c>
       <c r="O4">
-        <v>0.8245251458998719</v>
+        <v>0.8245251458989574</v>
       </c>
       <c r="P4">
-        <v>0.9491322818868796</v>
+        <v>0.9801281579950291</v>
       </c>
       <c r="Q4">
-        <v>20.73685799301139</v>
+        <v>21.83440906059064</v>
       </c>
       <c r="R4">
-        <v>-98.72515785570232</v>
+        <v>-98.7251578557172</v>
       </c>
       <c r="S4">
-        <v>151.5912686865597</v>
+        <v>155.4159073627191</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.259199693387504</v>
+        <v>1.054446709988495</v>
       </c>
       <c r="D5">
-        <v>1.035280886579985</v>
+        <v>1.044661731853092</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.53998563881539</v>
+        <v>12.17570183715946</v>
       </c>
       <c r="G5">
-        <v>11.95439397107657</v>
+        <v>12.06271464194967</v>
       </c>
       <c r="H5">
-        <v>7.413051324193639</v>
+        <v>2.542129332567606</v>
       </c>
       <c r="I5">
-        <v>3.390143041356974</v>
+        <v>-1165.720190324394</v>
       </c>
       <c r="J5">
-        <v>1.147731927164112</v>
+        <v>1.14773192722413</v>
       </c>
       <c r="K5">
-        <v>3.488438701404433</v>
+        <v>3.488438701519483</v>
       </c>
       <c r="L5">
-        <v>1.1477319271709</v>
+        <v>1.147731927162521</v>
       </c>
       <c r="M5">
-        <v>3.488438701416181</v>
+        <v>3.488438701430278</v>
       </c>
       <c r="N5">
-        <v>0.9903588319323992</v>
+        <v>1.076744301483709</v>
       </c>
       <c r="O5">
-        <v>0.7421321146322525</v>
+        <v>0.7421321146314185</v>
       </c>
       <c r="P5">
-        <v>0.9186279795669436</v>
+        <v>0.9677108256695388</v>
       </c>
       <c r="Q5">
-        <v>18.80758200140516</v>
+        <v>19.86731172737662</v>
       </c>
       <c r="R5">
-        <v>-99.08615255179583</v>
+        <v>-99.08615255181688</v>
       </c>
       <c r="S5">
-        <v>153.245523965157</v>
+        <v>157.719711952272</v>
       </c>
       <c r="T5">
-        <v>0.9532576563224346</v>
+        <v>0.01647397532790788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.02640438535502</v>
+        <v>1.094902810674222</v>
       </c>
       <c r="O6">
-        <v>0.8245251459009216</v>
+        <v>0.8245251459000073</v>
       </c>
       <c r="P6">
-        <v>0.9491322818895265</v>
+        <v>0.9801281579983576</v>
       </c>
       <c r="Q6">
-        <v>20.7368579932064</v>
+        <v>21.83440906070241</v>
       </c>
       <c r="R6">
-        <v>-98.72515785524027</v>
+        <v>-98.72515785525515</v>
       </c>
       <c r="S6">
-        <v>151.5912686866806</v>
+        <v>155.4159073627414</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9858950257652053</v>
+        <v>0.9964250789311477</v>
       </c>
       <c r="O2">
-        <v>0.8925077601160692</v>
+        <v>0.8925077601169304</v>
       </c>
       <c r="P2">
-        <v>0.9526453046912507</v>
+        <v>0.9518734227600236</v>
       </c>
       <c r="Q2">
-        <v>26.07281656173937</v>
+        <v>26.55960596106637</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842538</v>
+        <v>-93.21942694842241</v>
       </c>
       <c r="S2">
-        <v>151.2792365456119</v>
+        <v>152.0891638203975</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.994135704246965</v>
+        <v>1.030791343102619</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399175</v>
+        <v>0.5561090193399414</v>
       </c>
       <c r="P3">
-        <v>0.7700727775904588</v>
+        <v>0.7715003097838294</v>
       </c>
       <c r="Q3">
-        <v>10.58980175544276</v>
+        <v>13.64443462208196</v>
       </c>
       <c r="R3">
-        <v>-118.9936572386298</v>
+        <v>-118.9936572386304</v>
       </c>
       <c r="S3">
-        <v>156.7715727809907</v>
+        <v>161.6210490241965</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8810566388003309</v>
+        <v>0.9423543743740144</v>
       </c>
       <c r="O4">
-        <v>0.2780545096810814</v>
+        <v>0.2780545096809312</v>
       </c>
       <c r="P4">
-        <v>0.7680972880509696</v>
+        <v>0.8090088322799802</v>
       </c>
       <c r="Q4">
-        <v>3.554114146876617</v>
+        <v>7.388492156765918</v>
       </c>
       <c r="R4">
-        <v>-118.993657233576</v>
+        <v>-118.9936572335614</v>
       </c>
       <c r="S4">
-        <v>165.7869834444497</v>
+        <v>171.3249221702948</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.779616116984348</v>
+        <v>2.401452227962088</v>
       </c>
       <c r="D5">
-        <v>2.085121307100399</v>
+        <v>2.393850913795815</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.09624226769471</v>
+        <v>27.72958180519877</v>
       </c>
       <c r="G5">
-        <v>24.07690695894879</v>
+        <v>27.64180938959691</v>
       </c>
       <c r="H5">
-        <v>14.23278600647117</v>
+        <v>4.880736449441652</v>
       </c>
       <c r="I5">
-        <v>3.339000131649207</v>
+        <v>-1165.721470576622</v>
       </c>
       <c r="J5">
-        <v>2.11215190086395</v>
+        <v>2.112151900924475</v>
       </c>
       <c r="K5">
-        <v>3.596397547110759</v>
+        <v>3.596397547225991</v>
       </c>
       <c r="L5">
-        <v>2.112151900850906</v>
+        <v>2.112151900843543</v>
       </c>
       <c r="M5">
-        <v>3.596397547088289</v>
+        <v>3.596397547101565</v>
       </c>
       <c r="N5">
-        <v>0.7849657176215326</v>
+        <v>0.8673596857976554</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7849657176222611</v>
+        <v>0.8673596857981098</v>
       </c>
       <c r="Q5">
-        <v>-5.370037654776037</v>
+        <v>-0.05235632677446245</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.6299623447781</v>
+        <v>179.9476436728326</v>
       </c>
       <c r="T5">
-        <v>1.073882995295924</v>
+        <v>0.01488094892976396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8810566387934978</v>
+        <v>0.9423543743672484</v>
       </c>
       <c r="O6">
-        <v>0.2780545096895974</v>
+        <v>0.2780545096894474</v>
       </c>
       <c r="P6">
-        <v>0.7680972880607153</v>
+        <v>0.8090088322892446</v>
       </c>
       <c r="Q6">
-        <v>3.55411414768687</v>
+        <v>7.388492157388785</v>
       </c>
       <c r="R6">
-        <v>-118.993657228839</v>
+        <v>-118.9936572288245</v>
       </c>
       <c r="S6">
-        <v>165.7869834441275</v>
+        <v>171.3249221697285</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9858950257652053</v>
+        <v>0.9964250789311477</v>
       </c>
       <c r="O2">
-        <v>0.8925077601160692</v>
+        <v>0.8925077601169304</v>
       </c>
       <c r="P2">
-        <v>0.9526453046912507</v>
+        <v>0.9518734227600236</v>
       </c>
       <c r="Q2">
-        <v>26.07281656173937</v>
+        <v>26.55960596106637</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842538</v>
+        <v>-93.21942694842241</v>
       </c>
       <c r="S2">
-        <v>151.2792365456119</v>
+        <v>152.0891638203975</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.994135704246965</v>
+        <v>1.030791343102619</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399175</v>
+        <v>0.5561090193399414</v>
       </c>
       <c r="P3">
-        <v>0.7700727775904588</v>
+        <v>0.7715003097838294</v>
       </c>
       <c r="Q3">
-        <v>10.58980175544276</v>
+        <v>13.64443462208196</v>
       </c>
       <c r="R3">
-        <v>-118.9936572386298</v>
+        <v>-118.9936572386304</v>
       </c>
       <c r="S3">
-        <v>156.7715727809907</v>
+        <v>161.6210490241965</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8810566388003309</v>
+        <v>0.9423543743740144</v>
       </c>
       <c r="O4">
-        <v>0.2780545096810814</v>
+        <v>0.2780545096809312</v>
       </c>
       <c r="P4">
-        <v>0.7680972880509696</v>
+        <v>0.8090088322799802</v>
       </c>
       <c r="Q4">
-        <v>3.554114146876617</v>
+        <v>7.388492156765918</v>
       </c>
       <c r="R4">
-        <v>-118.993657233576</v>
+        <v>-118.9936572335614</v>
       </c>
       <c r="S4">
-        <v>165.7869834444497</v>
+        <v>171.3249221702948</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.779616116984348</v>
+        <v>2.401452227962088</v>
       </c>
       <c r="D5">
-        <v>2.085121307100399</v>
+        <v>2.393850913795815</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.09624226769471</v>
+        <v>27.72958180519877</v>
       </c>
       <c r="G5">
-        <v>24.07690695894879</v>
+        <v>27.64180938959691</v>
       </c>
       <c r="H5">
-        <v>14.23278600647117</v>
+        <v>4.880736449441652</v>
       </c>
       <c r="I5">
-        <v>3.339000131649207</v>
+        <v>-1165.721470576622</v>
       </c>
       <c r="J5">
-        <v>2.11215190086395</v>
+        <v>2.112151900924475</v>
       </c>
       <c r="K5">
-        <v>3.596397547110759</v>
+        <v>3.596397547225991</v>
       </c>
       <c r="L5">
-        <v>2.112151900850906</v>
+        <v>2.112151900843543</v>
       </c>
       <c r="M5">
-        <v>3.596397547088289</v>
+        <v>3.596397547101565</v>
       </c>
       <c r="N5">
-        <v>0.7849657176215326</v>
+        <v>0.8673596857976554</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7849657176222611</v>
+        <v>0.8673596857981098</v>
       </c>
       <c r="Q5">
-        <v>-5.370037654776037</v>
+        <v>-0.05235632677446245</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.6299623447781</v>
+        <v>179.9476436728326</v>
       </c>
       <c r="T5">
-        <v>1.073882995295924</v>
+        <v>0.01488094892976396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8810566387934978</v>
+        <v>0.9423543743672484</v>
       </c>
       <c r="O6">
-        <v>0.2780545096895974</v>
+        <v>0.2780545096894474</v>
       </c>
       <c r="P6">
-        <v>0.7680972880607153</v>
+        <v>0.8090088322892446</v>
       </c>
       <c r="Q6">
-        <v>3.55411414768687</v>
+        <v>7.388492157388785</v>
       </c>
       <c r="R6">
-        <v>-118.993657228839</v>
+        <v>-118.9936572288245</v>
       </c>
       <c r="S6">
-        <v>165.7869834441275</v>
+        <v>171.3249221697285</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9943453921612576</v>
+        <v>1.001923469996047</v>
       </c>
       <c r="O2">
-        <v>0.9631240430156633</v>
+        <v>0.9631240430161805</v>
       </c>
       <c r="P2">
-        <v>0.9791966037739767</v>
+        <v>0.9801009577806808</v>
       </c>
       <c r="Q2">
-        <v>28.50722150537319</v>
+        <v>28.71512060014576</v>
       </c>
       <c r="R2">
-        <v>-91.48679392928062</v>
+        <v>-91.4867939292798</v>
       </c>
       <c r="S2">
-        <v>150.092471195862</v>
+        <v>150.5808445160575</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9857300533188204</v>
+        <v>1.019473856401514</v>
       </c>
       <c r="O3">
-        <v>0.8367132283541189</v>
+        <v>0.8367132283541783</v>
       </c>
       <c r="P3">
-        <v>0.8990827221901467</v>
+        <v>0.9021371099368702</v>
       </c>
       <c r="Q3">
-        <v>22.61707831863638</v>
+        <v>23.91130605968569</v>
       </c>
       <c r="R3">
-        <v>-98.94474932053292</v>
+        <v>-98.94474932053144</v>
       </c>
       <c r="S3">
-        <v>150.1534042315554</v>
+        <v>152.7316016566494</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9332072168362365</v>
+        <v>0.9843279717947687</v>
       </c>
       <c r="O4">
-        <v>0.7348977271737837</v>
+        <v>0.7348977271738131</v>
       </c>
       <c r="P4">
-        <v>0.8745536327350225</v>
+        <v>0.897229601419547</v>
       </c>
       <c r="Q4">
-        <v>20.68657375593682</v>
+        <v>21.69956421560706</v>
       </c>
       <c r="R4">
-        <v>-97.41604264393965</v>
+        <v>-97.41604264393527</v>
       </c>
       <c r="S4">
-        <v>152.8491205376017</v>
+        <v>156.0091514443447</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.063506480122633</v>
+        <v>0.9011490040024622</v>
       </c>
       <c r="D5">
-        <v>0.8345843483695264</v>
+        <v>0.8914688309184864</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.28031505167427</v>
+        <v>10.40557240081569</v>
       </c>
       <c r="G5">
-        <v>9.63694996385189</v>
+        <v>10.29379539009898</v>
       </c>
       <c r="H5">
-        <v>14.23278600647117</v>
+        <v>4.880736449441652</v>
       </c>
       <c r="I5">
-        <v>3.339000131649207</v>
+        <v>-1165.721470576622</v>
       </c>
       <c r="J5">
-        <v>2.11215190086395</v>
+        <v>2.112151900924475</v>
       </c>
       <c r="K5">
-        <v>3.596397547110759</v>
+        <v>3.596397547225991</v>
       </c>
       <c r="L5">
-        <v>2.112151900850906</v>
+        <v>2.112151900843543</v>
       </c>
       <c r="M5">
-        <v>3.596397547088289</v>
+        <v>3.596397547101565</v>
       </c>
       <c r="N5">
-        <v>0.8818692731250181</v>
+        <v>0.950755983600661</v>
       </c>
       <c r="O5">
-        <v>0.6337732350776847</v>
+        <v>0.6337732350776867</v>
       </c>
       <c r="P5">
-        <v>0.852069365555971</v>
+        <v>0.8952846658067959</v>
       </c>
       <c r="Q5">
-        <v>18.52860513014169</v>
+        <v>19.32787583316461</v>
       </c>
       <c r="R5">
-        <v>-95.39765209811742</v>
+        <v>-95.39765209810908</v>
       </c>
       <c r="S5">
-        <v>155.6936934678808</v>
+        <v>159.3118150764</v>
       </c>
       <c r="T5">
-        <v>0.664684908535958</v>
+        <v>0.01497664342676833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9332072168350828</v>
+        <v>0.9843279717925694</v>
       </c>
       <c r="O6">
-        <v>0.7348977271787384</v>
+        <v>0.7348977271787678</v>
       </c>
       <c r="P6">
-        <v>0.8745536327392391</v>
+        <v>0.8972296014239165</v>
       </c>
       <c r="Q6">
-        <v>20.68657375626303</v>
+        <v>21.69956421584269</v>
       </c>
       <c r="R6">
-        <v>-97.4160426433386</v>
+        <v>-97.41604264333421</v>
       </c>
       <c r="S6">
-        <v>152.8491205376444</v>
+        <v>156.009151444262</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9943453921612576</v>
+        <v>1.001923469996047</v>
       </c>
       <c r="O2">
-        <v>0.9631240430156633</v>
+        <v>0.9631240430161805</v>
       </c>
       <c r="P2">
-        <v>0.9791966037739767</v>
+        <v>0.9801009577806808</v>
       </c>
       <c r="Q2">
-        <v>28.50722150537319</v>
+        <v>28.71512060014576</v>
       </c>
       <c r="R2">
-        <v>-91.48679392928062</v>
+        <v>-91.4867939292798</v>
       </c>
       <c r="S2">
-        <v>150.092471195862</v>
+        <v>150.5808445160575</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9857300533188204</v>
+        <v>1.019473856401514</v>
       </c>
       <c r="O3">
-        <v>0.8367132283541189</v>
+        <v>0.8367132283541783</v>
       </c>
       <c r="P3">
-        <v>0.8990827221901467</v>
+        <v>0.9021371099368702</v>
       </c>
       <c r="Q3">
-        <v>22.61707831863638</v>
+        <v>23.91130605968569</v>
       </c>
       <c r="R3">
-        <v>-98.94474932053292</v>
+        <v>-98.94474932053144</v>
       </c>
       <c r="S3">
-        <v>150.1534042315554</v>
+        <v>152.7316016566494</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9332072168362365</v>
+        <v>0.9843279717947687</v>
       </c>
       <c r="O4">
-        <v>0.7348977271737837</v>
+        <v>0.7348977271738131</v>
       </c>
       <c r="P4">
-        <v>0.8745536327350225</v>
+        <v>0.897229601419547</v>
       </c>
       <c r="Q4">
-        <v>20.68657375593682</v>
+        <v>21.69956421560706</v>
       </c>
       <c r="R4">
-        <v>-97.41604264393965</v>
+        <v>-97.41604264393527</v>
       </c>
       <c r="S4">
-        <v>152.8491205376017</v>
+        <v>156.0091514443447</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.063506480122633</v>
+        <v>0.9011490040024622</v>
       </c>
       <c r="D5">
-        <v>0.8345843483695264</v>
+        <v>0.8914688309184864</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.28031505167427</v>
+        <v>10.40557240081569</v>
       </c>
       <c r="G5">
-        <v>9.63694996385189</v>
+        <v>10.29379539009898</v>
       </c>
       <c r="H5">
-        <v>14.23278600647117</v>
+        <v>4.880736449441652</v>
       </c>
       <c r="I5">
-        <v>3.339000131649207</v>
+        <v>-1165.721470576622</v>
       </c>
       <c r="J5">
-        <v>2.11215190086395</v>
+        <v>2.112151900924475</v>
       </c>
       <c r="K5">
-        <v>3.596397547110759</v>
+        <v>3.596397547225991</v>
       </c>
       <c r="L5">
-        <v>2.112151900850906</v>
+        <v>2.112151900843543</v>
       </c>
       <c r="M5">
-        <v>3.596397547088289</v>
+        <v>3.596397547101565</v>
       </c>
       <c r="N5">
-        <v>0.8818692731250181</v>
+        <v>0.950755983600661</v>
       </c>
       <c r="O5">
-        <v>0.6337732350776847</v>
+        <v>0.6337732350776867</v>
       </c>
       <c r="P5">
-        <v>0.852069365555971</v>
+        <v>0.8952846658067959</v>
       </c>
       <c r="Q5">
-        <v>18.52860513014169</v>
+        <v>19.32787583316461</v>
       </c>
       <c r="R5">
-        <v>-95.39765209811742</v>
+        <v>-95.39765209810908</v>
       </c>
       <c r="S5">
-        <v>155.6936934678808</v>
+        <v>159.3118150764</v>
       </c>
       <c r="T5">
-        <v>0.664684908535958</v>
+        <v>0.01497664342676833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9332072168350828</v>
+        <v>0.9843279717925694</v>
       </c>
       <c r="O6">
-        <v>0.7348977271787384</v>
+        <v>0.7348977271787678</v>
       </c>
       <c r="P6">
-        <v>0.8745536327392391</v>
+        <v>0.8972296014239165</v>
       </c>
       <c r="Q6">
-        <v>20.68657375626303</v>
+        <v>21.69956421584269</v>
       </c>
       <c r="R6">
-        <v>-97.4160426433386</v>
+        <v>-97.41604264333421</v>
       </c>
       <c r="S6">
-        <v>152.8491205376444</v>
+        <v>156.009151444262</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>0.9717494206873251</v>
+        <v>0.9717494206873249</v>
       </c>
       <c r="P2">
         <v>1.056597221450648</v>
@@ -10550,7 +10550,7 @@
         <v>26.67016311516074</v>
       </c>
       <c r="R2">
-        <v>-91.68229557616606</v>
+        <v>-91.68229557616607</v>
       </c>
       <c r="S2">
         <v>152.6354521266393</v>
@@ -10603,13 +10603,13 @@
         <v>0.4711324625045255</v>
       </c>
       <c r="P3">
-        <v>0.8867526821368246</v>
+        <v>0.8867526821368233</v>
       </c>
       <c r="Q3">
-        <v>11.70358232174644</v>
+        <v>11.70358232174645</v>
       </c>
       <c r="R3">
-        <v>-113.1797985005416</v>
+        <v>-113.1797985005418</v>
       </c>
       <c r="S3">
         <v>165.8651090976159</v>
@@ -10659,19 +10659,19 @@
         <v>1.004840030213502</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557481</v>
+        <v>0.235566231255748</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423151</v>
+        <v>0.9127115190423138</v>
       </c>
       <c r="Q4">
-        <v>6.18582776475129</v>
+        <v>6.1858277647513</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957917</v>
       </c>
       <c r="S4">
-        <v>173.1869568170008</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10697,22 +10697,22 @@
         <v>34.58697219773961</v>
       </c>
       <c r="H5">
-        <v>7.413051324193639</v>
+        <v>2.542129332567606</v>
       </c>
       <c r="I5">
-        <v>3.390143041356974</v>
+        <v>-1165.720190324394</v>
       </c>
       <c r="J5">
-        <v>1.147731927164112</v>
+        <v>1.14773192722413</v>
       </c>
       <c r="K5">
-        <v>3.488438701404433</v>
+        <v>3.488438701519483</v>
       </c>
       <c r="L5">
-        <v>1.1477319271709</v>
+        <v>1.147731927162521</v>
       </c>
       <c r="M5">
-        <v>3.488438701416181</v>
+        <v>3.488438701430278</v>
       </c>
       <c r="N5">
         <v>0.9526279648043285</v>
@@ -10721,10 +10721,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061715</v>
+        <v>0.9526279648061703</v>
       </c>
       <c r="Q5">
-        <v>-1.471317341126438E-11</v>
+        <v>-1.470883264082738E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10777,16 +10777,16 @@
         <v>1.004840030206317</v>
       </c>
       <c r="O6">
-        <v>0.2355662312598145</v>
+        <v>0.2355662312598144</v>
       </c>
       <c r="P6">
-        <v>0.9127115190507498</v>
+        <v>0.9127115190507487</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114833</v>
+        <v>6.185827765114841</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912246</v>
+        <v>-113.1797984912249</v>
       </c>
       <c r="S6">
         <v>173.1869568167123</v>
